--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihour\Desktop\repos\renova\renova-product-quotator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3D91F0-F374-40A4-883B-AEC6F03A7F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541FE9FF-E291-4642-AEA9-443F9F41A825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,19 +206,19 @@
     <t>https://www.dhfdistribuidora.com.ar/content/bucket/1/2041w430h270.jpg.webp</t>
   </si>
   <si>
-    <t>https://catalogofram.com.ar/img?url=https%3A%2F%2Fproduction-specparts-search-api-images-bucket.s3.amazonaws.com%2Fpart_pictures%2FodkNrJ4jaRJKup4uPYeuJpZpCthCCoiM.jpg</t>
-  </si>
-  <si>
     <t>https://catalogofram.com.ar/img?url=https%3A%2F%2Fproduction-specparts-search-api-images-bucket.s3.amazonaws.com%2Fpart_pictures%2FU8AMrhqlgiWkp3zCk7exfo5uMQOMaTq3.jpg</t>
   </si>
   <si>
     <t>https://i2.wp.com/tuautoideal.com.ar/wp-content/uploads/2022/04/argo-drive-grande1-1.jpg?zoom=1.25&amp;fit=1113%2C1113&amp;ssl=1</t>
   </si>
   <si>
-    <t>https://catalogofram.com.ar/img?url=https%3A%2F%2Fproduction-specparts-search-api-images-bucket.s3.amazonaws.com%2Fpart_pictures%2FOvRXIBulkwgiUGaBOQETtmseIu305iY2.jpg</t>
-  </si>
-  <si>
-    <t>https://catalogofram.com.ar/img?url=https%3A%2F%2Fproduction-specparts-search-api-images-bucket.s3.amazonaws.com%2Fpart_pictures%2F2liwqz8LkCYWhh9okVOo6E8PsHXpbrEq.jpg</t>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_881694-MLA70061350186_062023-F.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_815627-MLA72720301527_112023-F.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_680318-MLA75641583430_042024-F.webp</t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>52</v>
@@ -816,7 +816,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,7 +969,7 @@
         <v>45</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -997,7 +997,7 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -1011,7 +1011,7 @@
         <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihour\Desktop\repos\renova\renova-product-quotator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541FE9FF-E291-4642-AEA9-443F9F41A825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EE2FC3-750E-458B-894B-6E76127F0999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter Kits" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -219,6 +219,42 @@
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_680318-MLA75641583430_042024-F.webp</t>
+  </si>
+  <si>
+    <t>Gol Trend</t>
+  </si>
+  <si>
+    <t>PH5548A</t>
+  </si>
+  <si>
+    <t>CA9410</t>
+  </si>
+  <si>
+    <t>G10230</t>
+  </si>
+  <si>
+    <t>HK508</t>
+  </si>
+  <si>
+    <t>https://vw-digital-cdn-global.itd.vw.com.br/assets/vw-newsroon-cdn-ar-ps/notas/VW%20Gol%20(3).jpg</t>
+  </si>
+  <si>
+    <t>Saveiro</t>
+  </si>
+  <si>
+    <t>PH5548</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_779506-MLA92397976027_092025-F.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_955959-MLA51260303860_082022-F.webp</t>
+  </si>
+  <si>
+    <t>https://acdn-us.mitiendanube.com/stores/005/955/023/products/d_921551-mla71695414979_092023-o-16894ece77d5b4437817448881291745-1024-1024.webp</t>
+  </si>
+  <si>
+    <t>https://www.dhfdistribuidora.com.ar/content/bucket/0/1630w430h270.jpg.webp</t>
   </si>
 </sst>
 </file>
@@ -629,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,6 +837,35 @@
       </c>
       <c r="I5" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -813,10 +878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,9 +1086,61 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihour\Desktop\repos\renova\renova-product-quotator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EE2FC3-750E-458B-894B-6E76127F0999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6DF387-81D6-439E-9EF1-D47E281C5B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter Kits" sheetId="1" r:id="rId1"/>
     <sheet name="Filters" sheetId="2" r:id="rId2"/>
+    <sheet name="Lubricants" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -255,6 +256,48 @@
   </si>
   <si>
     <t>https://www.dhfdistribuidora.com.ar/content/bucket/0/1630w430h270.jpg.webp</t>
+  </si>
+  <si>
+    <t>camioneta</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code </t>
+  </si>
+  <si>
+    <t>04VA153</t>
+  </si>
+  <si>
+    <t>descirption</t>
+  </si>
+  <si>
+    <t>Advenced oil</t>
+  </si>
+  <si>
+    <t>5W40</t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>200L</t>
+  </si>
+  <si>
+    <t>graduation</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t>Norm</t>
+  </si>
+  <si>
+    <t>API SN</t>
+  </si>
+  <si>
+    <t>https://files.paganoycia.com.ar/articles/04VA153.jpg</t>
   </si>
 </sst>
 </file>
@@ -315,16 +358,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -665,207 +706,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="11" width="8.796875" style="4"/>
+    <col min="12" max="12" width="18.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1033,7 +1097,7 @@
       <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C11" t="s">
@@ -1047,7 +1111,7 @@
       <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C12" t="s">
@@ -1089,7 +1153,7 @@
       <c r="A15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C15" t="s">
@@ -1147,4 +1211,87 @@
     <ignoredError sqref="A1:D6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF242F6-A411-4B97-A2D8-EB2D60AE83EE}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>